--- a/data/trans_camb/P19C07-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C07-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P19C07-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C07-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,42</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,36; 7,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,55; 3,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,87; 5,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,93; 5,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,24; 3,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,66; 6,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 5,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,51; 2,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,85; 4,32</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,19%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,26%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,65%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,41%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,12; 172,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,69; 75,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,59; 143,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,59; 92,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,72; 71,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,59; 104,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,72; 98,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,63; 50,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,39; 74,81</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,81</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,62</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,33; 2,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,74; 1,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,85; 4,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 4,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,21; 4,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,67; 7,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 2,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,19; 2,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,42; 5,1</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,9%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,17%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,65%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,02%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,66%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,88%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,49%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,0%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,79; 100,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,88; 71,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,52; 143,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,37; 158,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,13; 152,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,28; 271,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,22; 99,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,13; 82,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,15; 155,39</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,37</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,34; 2,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,51; 3,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,63; 3,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,47; 2,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,08; 1,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,68; 3,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 1,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,83; 1,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,03; 2,83</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,92%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,33%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,46%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,11%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,68%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,63%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,22%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,37%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,58; 183,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,85; 263,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,64; 273,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,4; 128,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,09; 85,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,66; 202,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,79; 116,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,18; 100,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,26; 157,14</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,12; 0,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,26; 0,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,48; 1,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,16; 1,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,3; 2,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,63; 2,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,47; 0,66</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,1; 0,92</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,37; 1,6</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,01%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,94%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,68%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,79%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,44%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,96%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,6%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,22%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,95%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,52; 39,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,0; 28,6</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,81; 65,71</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,94; 148,25</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,75; 221,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,65; 201,11</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,07; 35,99</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,28; 49,17</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,12; 79,12</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,33</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,9; 1,96</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,76; 2,17</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,79; 1,51</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,83; 1,06</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,27; 1,96</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,31; 2,3</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,85; 0,84</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,41; 1,59</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 1,42</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,31%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,53%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,53%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,94%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,84%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,61%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,41%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,21%</t>
         </is>
       </c>
     </row>
@@ -1660,42 +1660,42 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,66; 508,14</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,28; 424,18</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,79; 190,9</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,47; 223,17</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,52; 232,14</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,04; 94,24</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,82; 167,9</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,68; 161,26</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,86</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,5; -0,16</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,86; -0,35</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,64; 0,76</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,16; 0,69</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,96; 1,34</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,59; 0,89</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,04; -0,2</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,09; 0,19</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,42; 0,3</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,3%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,02%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,8%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,8%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,49%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,73%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,22%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,6%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,59%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,5; 10,45</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,29; -6,38</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,19; 38,85</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,58; 44,5</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,68; 79,9</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,98; 49,18</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,79; -6,02</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,69; 13,84</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,93; 14,89</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 1,0</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,54; 0,38</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 0,94</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 1,2</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,88; 0,95</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,51; 1,48</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,7; 0,68</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,97; 0,45</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 0,93</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,72%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,22%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,31%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,37%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,83%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,51; 36,49</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,13; 13,61</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,93; 33,93</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,95; 38,28</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,31; 32,1</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,84; 48,7</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,16; 21,51</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,63; 14,4</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,87; 30,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C07-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C07-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,84</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 5,96</t>
+          <t>-3,08; 8,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 6,18</t>
+          <t>-4,0; 5,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 4,32</t>
+          <t>-2,61; 5,36</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>25,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>12,91%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-56,59; 143,92</t>
+          <t>-48,77; 196,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-44,59; 104,62</t>
+          <t>-47,97; 100,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-38,39; 74,81</t>
+          <t>-36,84; 93,61</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>2,27</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 4,57</t>
+          <t>-2,06; 4,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 7,22</t>
+          <t>-0,5; 6,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 5,1</t>
+          <t>-0,02; 4,85</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,17%</t>
+          <t>27,08%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>95,66%</t>
+          <t>81,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>66,0%</t>
+          <t>57,33%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-39,52; 143,35</t>
+          <t>-41,39; 139,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,28; 271,91</t>
+          <t>-8,94; 244,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,15; 155,39</t>
+          <t>-3,7; 141,77</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>1,36</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 3,57</t>
+          <t>-0,68; 3,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 3,4</t>
+          <t>-0,62; 3,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 2,83</t>
+          <t>-0,05; 2,82</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>71,46%</t>
+          <t>69,9%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>46,63%</t>
+          <t>47,85%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>55,37%</t>
+          <t>55,23%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-27,64; 273,92</t>
+          <t>-28,38; 275,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-20,66; 202,33</t>
+          <t>-20,43; 199,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 157,14</t>
+          <t>-3,16; 157,54</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>-0,24</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 1,37</t>
+          <t>-4,65; 0,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 2,67</t>
+          <t>-0,81; 2,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 1,6</t>
+          <t>-2,04; 1,17</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-18,68%</t>
+          <t>-38,32%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>49,96%</t>
+          <t>42,12%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>-8,22%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-63,81; 65,71</t>
+          <t>-82,07; 23,87</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-21,65; 201,11</t>
+          <t>-28,31; 187,33</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-33,12; 79,12</t>
+          <t>-53,55; 54,55</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,3</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 1,51</t>
+          <t>-1,81; 1,49</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 2,3</t>
+          <t>-1,3; 2,28</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 1,42</t>
+          <t>-1,11; 1,38</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-1,53%</t>
+          <t>-4,12%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>36,61%</t>
+          <t>36,64%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
+          <t>17,81%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-72,28; 424,18</t>
+          <t>-72,67; 443,56</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-41,52; 232,14</t>
+          <t>-41,32; 230,33</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-40,68; 161,26</t>
+          <t>-41,98; 156,69</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>-3,66</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>-2,78</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>-2,49</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-1,84</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,5; -0,16</t>
+          <t>-6,91; -1,39</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,86; -0,35</t>
+          <t>-6,13; -0,01</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 0,76</t>
+          <t>-5,06; 0,84</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 0,69</t>
+          <t>-4,11; 1,01</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 1,34</t>
+          <t>-3,92; 1,78</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 0,89</t>
+          <t>-5,1; 0,34</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-3,04; -0,2</t>
+          <t>-4,57; -0,65</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 0,19</t>
+          <t>-3,81; 0,49</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 0,3</t>
+          <t>-4,25; -0,15</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-60,3%</t>
+          <t>-83,11%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-66,02%</t>
+          <t>-63,08%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-34,8%</t>
+          <t>-43,37%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-40,8%</t>
+          <t>-44,24%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-24,49%</t>
+          <t>-26,73%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-20,73%</t>
+          <t>-49,43%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-50,22%</t>
+          <t>-65,03%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-44,6%</t>
+          <t>-45,88%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-27,59%</t>
+          <t>-48,07%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-88,5; 10,45</t>
+          <t>-100,0; -19,53</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-92,29; -6,38</t>
+          <t>-92,72; 23,27</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-68,19; 38,85</t>
+          <t>-76,14; 40,42</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-80,58; 44,5</t>
+          <t>-84,57; 76,42</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-70,68; 79,9</t>
+          <t>-79,59; 114,03</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-60,98; 49,18</t>
+          <t>-86,87; 12,58</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-74,79; -6,02</t>
+          <t>-87,97; -16,72</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-73,69; 13,84</t>
+          <t>-75,95; 25,96</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-56,93; 14,89</t>
+          <t>-75,76; -5,61</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
+          <t>-0,46</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-0,35</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-0,89</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
           <t>0,13</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>0,6</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>-0,22</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 1,0</t>
+          <t>-3,5; 2,99</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 0,38</t>
+          <t>-4,94; 0,46</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 0,94</t>
+          <t>-3,34; 2,4</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 1,2</t>
+          <t>-3,65; 1,6</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 0,95</t>
+          <t>-3,45; 2,5</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 1,48</t>
+          <t>-2,93; 2,09</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 0,68</t>
+          <t>-2,3; 1,56</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 0,45</t>
+          <t>-3,03; 0,97</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 0,93</t>
+          <t>-2,0; 1,7</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-2,72%</t>
+          <t>12,25%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-17,22%</t>
+          <t>-74,14%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-5,31%</t>
+          <t>-1,32%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>-32,93%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>-20,9%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>10,9%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>-16,35%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-6,37%</t>
+          <t>-41,15%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>6,0%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 578,44</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-81,85; inf</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-88,75; 381,84</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-64,58; 313,82</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-70,85; 202,68</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-89,23; 140,17</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-55,19; 183,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-0,59</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>0,4</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-0,22</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-1,05; 1,0</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-1,54; 0,38</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-1,3; 1,04</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-0,82; 1,2</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-0,88; 0,95</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-0,86; 1,25</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-0,7; 0,68</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-0,97; 0,45</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-0,73; 0,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>-2,72%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-17,22%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-6,68%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>3,47%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>3,62%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>11,44%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,5%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>-6,37%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>2,7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-26,51; 36,49</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-38,13; 13,61</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-29,93; 33,93</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-34,3; 34,69</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-20,95; 38,28</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-22,31; 32,1</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-12,84; 48,7</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-21,01; 41,23</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>-18,16; 21,51</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-25,63; 14,4</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-12,87; 30,74</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-19,43; 27,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P19C07-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C07-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 7,02</t>
+          <t>-0,72; 6,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 3,15</t>
+          <t>-3,64; 2,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 8,52</t>
+          <t>-3,5; 7,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 5,25</t>
+          <t>-2,18; 5,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 3,98</t>
+          <t>-3,27; 3,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 5,87</t>
+          <t>-3,6; 6,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 5,19</t>
+          <t>-0,32; 5,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 2,58</t>
+          <t>-2,33; 2,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 5,36</t>
+          <t>-2,62; 4,53</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 172,22</t>
+          <t>-11,19; 167,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-49,69; 75,68</t>
+          <t>-50,16; 71,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-48,77; 196,02</t>
+          <t>-52,12; 173,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,59; 92,96</t>
+          <t>-23,78; 104,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,72; 71,75</t>
+          <t>-38,07; 73,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,97; 100,74</t>
+          <t>-44,67; 118,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 98,71</t>
+          <t>-3,3; 107,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-31,63; 50,31</t>
+          <t>-31,03; 59,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-36,84; 93,61</t>
+          <t>-35,91; 82,87</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 2,9</t>
+          <t>-1,66; 3,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 1,87</t>
+          <t>-2,53; 2,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 4,46</t>
+          <t>-1,66; 4,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 4,66</t>
+          <t>-1,01; 4,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 4,34</t>
+          <t>-1,23; 4,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 6,77</t>
+          <t>-0,61; 6,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 2,99</t>
+          <t>-0,78; 3,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 2,57</t>
+          <t>-1,19; 2,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 4,85</t>
+          <t>-0,05; 4,78</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-45,79; 100,91</t>
+          <t>-36,56; 108,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-52,88; 71,55</t>
+          <t>-49,56; 78,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-41,39; 139,94</t>
+          <t>-36,14; 149,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-22,37; 158,78</t>
+          <t>-25,51; 171,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,13; 152,76</t>
+          <t>-24,72; 148,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 244,15</t>
+          <t>-8,46; 226,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,22; 99,23</t>
+          <t>-16,1; 93,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-24,13; 82,6</t>
+          <t>-25,87; 79,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 141,77</t>
+          <t>-1,66; 152,65</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 2,32</t>
+          <t>-1,17; 2,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 3,29</t>
+          <t>-0,67; 3,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 3,49</t>
+          <t>-0,54; 3,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 2,24</t>
+          <t>-1,39; 2,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 1,55</t>
+          <t>-2,11; 1,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 3,4</t>
+          <t>-0,55; 3,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 1,98</t>
+          <t>-0,78; 1,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 1,77</t>
+          <t>-1,08; 1,75</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 2,82</t>
+          <t>0,03; 2,86</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-51,58; 183,42</t>
+          <t>-44,11; 181,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-22,85; 263,45</t>
+          <t>-32,73; 230,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-28,38; 275,2</t>
+          <t>-24,72; 244,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-41,4; 128,81</t>
+          <t>-38,31; 125,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-57,09; 85,15</t>
+          <t>-55,41; 92,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-20,43; 199,23</t>
+          <t>-17,64; 185,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-24,79; 116,57</t>
+          <t>-25,45; 110,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-29,18; 100,46</t>
+          <t>-33,31; 95,12</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 157,54</t>
+          <t>0,1; 159,42</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 0,62</t>
+          <t>-4,24; 0,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 0,39</t>
+          <t>-4,3; 0,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 0,58</t>
+          <t>-4,12; 0,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 1,81</t>
+          <t>-2,29; 1,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 2,78</t>
+          <t>-1,39; 2,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 2,52</t>
+          <t>-1,06; 2,6</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 0,66</t>
+          <t>-2,59; 0,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 0,92</t>
+          <t>-2,06; 1,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 1,17</t>
+          <t>-2,0; 1,22</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-77,52; 39,03</t>
+          <t>-80,94; 32,94</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-83,0; 28,6</t>
+          <t>-81,53; 28,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-82,07; 23,87</t>
+          <t>-79,85; 28,88</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-63,94; 148,25</t>
+          <t>-67,34; 143,47</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-43,75; 221,13</t>
+          <t>-44,08; 208,93</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-28,31; 187,33</t>
+          <t>-32,45; 195,08</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-64,07; 35,99</t>
+          <t>-66,01; 30,15</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-55,28; 49,17</t>
+          <t>-54,1; 55,85</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-53,55; 54,55</t>
+          <t>-52,32; 51,73</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 1,96</t>
+          <t>-2,04; 1,92</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 2,17</t>
+          <t>-1,79; 2,16</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 1,49</t>
+          <t>-1,96; 1,41</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 1,06</t>
+          <t>-2,81; 0,98</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 1,96</t>
+          <t>-2,46; 1,9</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 2,28</t>
+          <t>-1,54; 2,36</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 0,84</t>
+          <t>-1,92; 0,87</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 1,59</t>
+          <t>-1,63; 1,28</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 1,38</t>
+          <t>-1,07; 1,42</t>
         </is>
       </c>
     </row>
@@ -1660,42 +1660,42 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-85,66; 508,14</t>
+          <t>-80,62; 570,45</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-72,67; 443,56</t>
+          <t>-73,4; 328,53</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-82,79; 190,9</t>
+          <t>-85,76; 156,67</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-73,47; 223,17</t>
+          <t>-75,77; 242,86</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-41,32; 230,33</t>
+          <t>-43,75; 305,02</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-75,04; 94,24</t>
+          <t>-75,75; 135,91</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-58,82; 167,9</t>
+          <t>-64,61; 126,35</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-41,98; 156,69</t>
+          <t>-43,54; 155,16</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,91; -1,39</t>
+          <t>-6,94; -1,4</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,13; -0,01</t>
+          <t>-5,87; 0,12</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 0,84</t>
+          <t>-5,28; 0,68</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 1,01</t>
+          <t>-4,23; 1,01</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 1,78</t>
+          <t>-3,79; 2,15</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 0,34</t>
+          <t>-5,55; 0,25</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,57; -0,65</t>
+          <t>-4,61; -0,6</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 0,49</t>
+          <t>-4,11; 0,38</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-4,25; -0,15</t>
+          <t>-4,24; -0,09</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -19,53</t>
+          <t>-100,0; -13,68</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-92,72; 23,27</t>
+          <t>-91,71; 20,71</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-76,14; 40,42</t>
+          <t>-78,32; 34,36</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-84,57; 76,42</t>
+          <t>-86,13; 77,71</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-79,59; 114,03</t>
+          <t>-78,58; 141,59</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-86,87; 12,58</t>
+          <t>-88,47; 8,76</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-87,97; -16,72</t>
+          <t>-87,98; -9,58</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-75,95; 25,96</t>
+          <t>-77,05; 23,29</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-75,76; -5,61</t>
+          <t>-76,9; -2,82</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 2,99</t>
+          <t>-3,43; 3,26</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 0,46</t>
+          <t>-5,38; 0,27</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 2,4</t>
+          <t>-3,8; 2,01</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 1,6</t>
+          <t>-3,81; 1,7</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 2,5</t>
+          <t>-3,73; 2,37</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 2,09</t>
+          <t>-2,46; 2,35</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 1,56</t>
+          <t>-2,52; 1,48</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 0,97</t>
+          <t>-3,01; 1,02</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 1,7</t>
+          <t>-1,99; 1,74</t>
         </is>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 578,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
@@ -2097,12 +2097,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-81,85; inf</t>
+          <t>-87,13; 380,58</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-88,75; 381,84</t>
+          <t>-90,84; 315,74</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -2112,22 +2112,22 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-64,58; 313,82</t>
+          <t>-59,02; 402,06</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-70,85; 202,68</t>
+          <t>-75,15; 136,01</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-89,23; 140,17</t>
+          <t>-89,45; 145,54</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-55,19; 183,25</t>
+          <t>-55,0; 207,9</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 1,0</t>
+          <t>-1,09; 0,94</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 0,38</t>
+          <t>-1,57; 0,42</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 1,04</t>
+          <t>-1,34; 0,92</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 1,2</t>
+          <t>-0,88; 1,11</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 0,95</t>
+          <t>-0,86; 1,13</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 1,25</t>
+          <t>-0,75; 1,36</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 0,68</t>
+          <t>-0,64; 0,75</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 0,45</t>
+          <t>-0,91; 0,48</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 0,87</t>
+          <t>-0,69; 0,88</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-26,51; 36,49</t>
+          <t>-27,19; 31,98</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-38,13; 13,61</t>
+          <t>-38,87; 15,33</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-34,3; 34,69</t>
+          <t>-34,45; 31,48</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-20,95; 38,28</t>
+          <t>-21,98; 37,9</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-22,31; 32,1</t>
+          <t>-21,9; 38,23</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-21,01; 41,23</t>
+          <t>-18,42; 44,81</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-18,16; 21,51</t>
+          <t>-16,74; 24,27</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-25,63; 14,4</t>
+          <t>-24,06; 15,79</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-19,43; 27,18</t>
+          <t>-18,51; 28,23</t>
         </is>
       </c>
     </row>
